--- a/output/size_tables_blackdiamond.xlsx
+++ b/output/size_tables_blackdiamond.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDA\test\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63050CEC-8131-4A59-9A57-F8BB3168B30C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261E7BC4-B6A8-4A39-AE18-5D2980DDF263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8460" yWindow="1890" windowWidth="19800" windowHeight="14070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="69">
   <si>
     <t>SIZE</t>
   </si>
@@ -213,19 +213,31 @@
     <t>129.5 - 137 cm</t>
   </si>
   <si>
-    <t>여성 상의</t>
+    <t>여성 반팔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>여성 하의</t>
+    <t>여성 긴팔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>남성 상의</t>
+    <t>여성 반바지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>남성 하의</t>
+    <t>여성 긴바지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남성 반팔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남성 긴팔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남성 반바지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -233,7 +245,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,16 +341,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -621,23 +633,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:AF9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:D25"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -650,8 +704,92 @@
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -664,8 +802,92 @@
       <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -678,8 +900,92 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -692,8 +998,92 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -706,8 +1096,92 @@
       <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -720,8 +1194,92 @@
       <c r="D7" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -734,345 +1292,127 @@
       <c r="D8" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="1" t="s">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="I9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="M9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P9" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="Y9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB9" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="1" t="s">
+      <c r="AC9" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="AD9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="AE9" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="AF9" s="1" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
+    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="Y1:AB1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="U1:X1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
